--- a/testdata/CaseTypeMapping_1718978762916.xlsx
+++ b/testdata/CaseTypeMapping_1718978762916.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_3C2D5AF9140D6777D6BF8E5213F9746C038AC1B1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05D4B359-8EBC-44CC-9788-AD03EFB8D8E6}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Mapping" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Dropdown" state="veryHidden" r:id="rId5"/>
+    <sheet name="Mapping" sheetId="1" r:id="rId1"/>
+    <sheet name="Dropdown" sheetId="2" state="veryHidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -2606,14 +2610,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2976,9 +2980,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D394"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="3" width="60" customWidth="1"/>
@@ -3010,7 +3019,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>746</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8502,23 +8511,30 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" showErrorMessage="1" error="Please select from dropdown" sqref="D10:D394">
-      <formula1>Dropdown!$A$1:$A$79</formula1>
-    </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" error="Please select from dropdown" sqref="D2:D394">
-      <formula1>Dropdown!$A$1:$A$79</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" showErrorMessage="1" error="Please select from dropdown" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>Dropdown!$A$1:$A$79</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D394</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A79"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -8917,6 +8933,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>